--- a/EDC Validation_template.xlsx
+++ b/EDC Validation_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_JNPMEDI\05_BLUE_3기_수습과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_JNPMEDI\05_BLUE_3기_수습과제\EDC_Validation_자동화_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD906EF-9CE2-4846-8B26-A83B70EB06B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5CD56-5CA8-4DEB-A9E6-E7938F4D5317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>EDC Validation List</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Document Seq.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -140,14 +136,6 @@
   </si>
   <si>
     <t>SPONSOR</t>
-  </si>
-  <si>
-    <t>한림대학교 강남성심병원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOTEEF_OS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Item ID</t>
@@ -738,18 +726,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -767,6 +743,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1030,7 +1018,9 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1829,9 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="34"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
@@ -1889,9 +1877,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="34" t="s">
-        <v>31</v>
-      </c>
+      <c r="C31" s="34"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -1946,12 +1932,10 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="31"/>
-      <c r="C33" s="37" t="s">
-        <v>24</v>
-      </c>
+      <c r="C33" s="37"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -29207,78 +29191,78 @@
       <c r="AD1" s="10"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="19.2">
-      <c r="A2" s="47" t="s">
-        <v>44</v>
+      <c r="A2" s="43" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
     </row>
     <row r="3" spans="1:32" s="3" customFormat="1" ht="19.2">
-      <c r="A3" s="47" t="s">
-        <v>54</v>
+      <c r="A3" s="43" t="s">
+        <v>51</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
     </row>
     <row r="4" spans="1:32" s="3" customFormat="1" ht="19.2">
-      <c r="A4" s="49" t="s">
-        <v>55</v>
+      <c r="A4" s="45" t="s">
+        <v>52</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -29292,8 +29276,8 @@
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
@@ -29309,140 +29293,140 @@
       <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="1:32" s="3" customFormat="1" ht="15.6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="50" t="s">
-        <v>56</v>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="46" t="s">
+        <v>53</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="43" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AF5" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="3" customFormat="1" ht="15.6">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="46"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32" ht="17.399999999999999">
       <c r="A7" s="1"/>
@@ -36646,16 +36630,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="P2:AD2"/>
+    <mergeCell ref="P3:AD3"/>
+    <mergeCell ref="P4:AD4"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="P5:AD5"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="P2:AD2"/>
-    <mergeCell ref="P3:AD3"/>
-    <mergeCell ref="P4:AD4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
@@ -36704,17 +36688,17 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="19.2">
-      <c r="A2" s="47" t="s">
-        <v>54</v>
+      <c r="A2" s="43" t="s">
+        <v>51</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
@@ -36728,10 +36712,10 @@
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="55"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="51" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36740,25 +36724,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="12"/>
@@ -42284,31 +42268,31 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
@@ -42347,7 +42331,7 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>14</v>
@@ -42362,28 +42346,28 @@
         <v>17</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>17</v>
@@ -42395,25 +42379,25 @@
         <v>19</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
     </row>
     <row r="5" spans="1:24" ht="19.2">
       <c r="A5" s="56"/>
@@ -63038,6 +63022,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A37"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:M3"/>
@@ -63054,11 +63043,6 @@
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
